--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1176.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1176.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.091866328042523</v>
+        <v>1.166753053665161</v>
       </c>
       <c r="B1">
-        <v>1.979609326744962</v>
+        <v>2.438791513442993</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.105927987534425</v>
+        <v>2.367482423782349</v>
       </c>
       <c r="E1">
-        <v>1.127458035682733</v>
+        <v>1.2341628074646</v>
       </c>
     </row>
   </sheetData>
